--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketMoBiSi.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketMoBiSi.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve"> 供应商 #SET TABLE COLUMNS 9</t>
   </si>
@@ -29,27 +29,12 @@
     <t>企业代码</t>
   </si>
   <si>
-    <t>@var deliverTime = ticket.DeliverTime==null?'':ticket.DeliverTime.toLocaleString();''</t>
-  </si>
-  <si>
     <t>工厂</t>
   </si>
   <si>
     <t>卸货门</t>
   </si>
   <si>
-    <t>@supplier==null?"":supplier.Name</t>
-  </si>
-  <si>
-    <t>@supplier==null?"":supplier.Code</t>
-  </si>
-  <si>
-    <t>@ticket.Destination</t>
-  </si>
-  <si>
-    <t>@ticket.Gate</t>
-  </si>
-  <si>
     <t xml:space="preserve">  入库单-供应商留存</t>
   </si>
   <si>
@@ -66,15 +51,6 @@
   </si>
   <si>
     <t>时间</t>
-  </si>
-  <si>
-    <t>@ticket.CarNum</t>
-  </si>
-  <si>
-    <t>@deliverTime</t>
-  </si>
-  <si>
-    <t>@ticket.Driver</t>
   </si>
   <si>
     <t>@ticket.ExpectedArriveTime==null?"无":ticket.ExpectedArriveTime.toLocaleDateString()</t>
@@ -262,6 +238,10 @@
       </rPr>
       <t>nit</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ticket.deliverTime</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -504,10 +484,40 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -522,40 +532,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -865,62 +854,52 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="16"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="31"/>
+      <c r="G1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="16"/>
+      <c r="I1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="15" t="s">
-        <v>8</v>
-      </c>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="34"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="22"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="16"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="16"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="35"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="5"/>
@@ -929,50 +908,46 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="22"/>
+      <c r="G5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="16"/>
       <c r="I5" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="15" t="s">
-        <v>19</v>
+      <c r="A6" s="20"/>
+      <c r="B6" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="G6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="28"/>
+      <c r="I6" s="22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="16"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="16"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="21"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="21"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
@@ -984,32 +959,32 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="10"/>
       <c r="F9" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
@@ -1022,31 +997,36 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
+        <v>22</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="G6:H7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G5:H5"/>
@@ -1055,11 +1035,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="G6:H7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketMoBiSi.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketMoBiSi.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve"> 供应商 #SET TABLE COLUMNS 9</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>卸货门</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  入库单-供应商留存</t>
   </si>
   <si>
     <t>车牌号</t>
@@ -242,6 +239,18 @@
   </si>
   <si>
     <t>@ticket.deliverTime</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ticket.liscensePlateNumber==null?'':ticket.liscensePlateNumber</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>@ticket.driverName==null?'':ticket.driverName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  出库单-供应商留存</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -438,7 +447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -484,57 +493,54 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -546,6 +552,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -854,52 +866,52 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="27"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="G1" s="15" t="s">
+      <c r="D1" s="15"/>
+      <c r="G1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="16"/>
+      <c r="H1" s="27"/>
       <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="23"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="34"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="22"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="33"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="35"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="21"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="34"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="7" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="5"/>
@@ -908,46 +920,50 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="27"/>
+      <c r="I5" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="20"/>
-      <c r="B6" s="32" t="s">
+      <c r="A6" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="G6" s="27" t="s">
+      <c r="B6" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="23"/>
+      <c r="I6" s="16" t="s">
         <v>10</v>
-      </c>
-      <c r="H6" s="28"/>
-      <c r="I6" s="22" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="21"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="21"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="34"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
@@ -959,32 +975,32 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="10"/>
       <c r="F9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="H9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="I9" s="10" t="s">
         <v>17</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="4"/>
@@ -997,36 +1013,31 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="13" t="s">
+      <c r="H11" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="I11" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="I11" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="G6:H7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G5:H5"/>
@@ -1035,6 +1046,11 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="G6:H7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/UI/bin/Debug/Excel/patternPutOutStorageTicketMoBiSi.xlsx
+++ b/UI/bin/Debug/Excel/patternPutOutStorageTicketMoBiSi.xlsx
@@ -447,7 +447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -496,36 +496,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -553,11 +523,38 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -866,43 +863,43 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
+      <c r="B1" s="17"/>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="15"/>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="27"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="33"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="16"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="23"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="34"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="17"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="24"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A4" s="12" t="s">
@@ -931,10 +928,10 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="27"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="3" t="s">
         <v>8</v>
       </c>
@@ -943,27 +940,27 @@
       <c r="A6" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="32"/>
+      <c r="I6" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="36"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="34"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="17"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="24"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="26"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
@@ -1018,11 +1015,11 @@
       <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="13" t="s">
         <v>26</v>
       </c>
@@ -1038,6 +1035,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="G2:H3"/>
+    <mergeCell ref="G6:H7"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G5:H5"/>
@@ -1046,11 +1048,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="G2:H3"/>
-    <mergeCell ref="G6:H7"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
